--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.084811666666667</v>
+        <v>1.10087</v>
       </c>
       <c r="H2">
-        <v>15.254435</v>
+        <v>3.30261</v>
       </c>
       <c r="I2">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="J2">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.128483</v>
+        <v>0.116143</v>
       </c>
       <c r="N2">
-        <v>0.385449</v>
+        <v>0.348429</v>
       </c>
       <c r="O2">
-        <v>0.01580103135560779</v>
+        <v>0.01430514908838541</v>
       </c>
       <c r="P2">
-        <v>0.01580103135560779</v>
+        <v>0.01430514908838541</v>
       </c>
       <c r="Q2">
-        <v>0.6533118573683333</v>
+        <v>0.12785834441</v>
       </c>
       <c r="R2">
-        <v>5.879806716315001</v>
+        <v>1.15072509969</v>
       </c>
       <c r="S2">
-        <v>0.008071391594110197</v>
+        <v>0.002637704181042067</v>
       </c>
       <c r="T2">
-        <v>0.008071391594110197</v>
+        <v>0.002637704181042067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.084811666666667</v>
+        <v>1.10087</v>
       </c>
       <c r="H3">
-        <v>15.254435</v>
+        <v>3.30261</v>
       </c>
       <c r="I3">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="J3">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.65284</v>
       </c>
       <c r="O3">
-        <v>0.5596822223772701</v>
+        <v>0.5605328823946109</v>
       </c>
       <c r="P3">
-        <v>0.5596822223772699</v>
+        <v>0.5605328823946107</v>
       </c>
       <c r="Q3">
-        <v>23.14070670504445</v>
+        <v>5.010000656933334</v>
       </c>
       <c r="R3">
-        <v>208.2663603454</v>
+        <v>45.0900059124</v>
       </c>
       <c r="S3">
-        <v>0.2858936409531002</v>
+        <v>0.1033557859738954</v>
       </c>
       <c r="T3">
-        <v>0.2858936409531001</v>
+        <v>0.1033557859738953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.084811666666667</v>
+        <v>1.10087</v>
       </c>
       <c r="H4">
-        <v>15.254435</v>
+        <v>3.30261</v>
       </c>
       <c r="I4">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="J4">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>10.355625</v>
       </c>
       <c r="O4">
-        <v>0.4245167462671222</v>
+        <v>0.4251619685170038</v>
       </c>
       <c r="P4">
-        <v>0.4245167462671222</v>
+        <v>0.4251619685170038</v>
       </c>
       <c r="Q4">
-        <v>17.552134271875</v>
+        <v>3.80006563125</v>
       </c>
       <c r="R4">
-        <v>157.969208446875</v>
+        <v>34.20059068125</v>
       </c>
       <c r="S4">
-        <v>0.2168491929587505</v>
+        <v>0.07839495380638166</v>
       </c>
       <c r="T4">
-        <v>0.2168491929587505</v>
+        <v>0.07839495380638166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>8.06705</v>
       </c>
       <c r="I5">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="J5">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.128483</v>
+        <v>0.116143</v>
       </c>
       <c r="N5">
-        <v>0.385449</v>
+        <v>0.348429</v>
       </c>
       <c r="O5">
-        <v>0.01580103135560779</v>
+        <v>0.01430514908838541</v>
       </c>
       <c r="P5">
-        <v>0.01580103135560779</v>
+        <v>0.01430514908838541</v>
       </c>
       <c r="Q5">
-        <v>0.3454929283833333</v>
+        <v>0.3123104627166667</v>
       </c>
       <c r="R5">
-        <v>3.10943635545</v>
+        <v>2.81079416445</v>
       </c>
       <c r="S5">
-        <v>0.0042684189587662</v>
+        <v>0.006442931957959132</v>
       </c>
       <c r="T5">
-        <v>0.0042684189587662</v>
+        <v>0.006442931957959131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>8.06705</v>
       </c>
       <c r="I6">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="J6">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.65284</v>
       </c>
       <c r="O6">
-        <v>0.5596822223772701</v>
+        <v>0.5605328823946109</v>
       </c>
       <c r="P6">
-        <v>0.5596822223772699</v>
+        <v>0.5605328823946107</v>
       </c>
       <c r="Q6">
         <v>12.23757143577778</v>
@@ -818,10 +818,10 @@
         <v>110.138142922</v>
       </c>
       <c r="S6">
-        <v>0.1511900176080404</v>
+        <v>0.252459810041365</v>
       </c>
       <c r="T6">
-        <v>0.1511900176080403</v>
+        <v>0.252459810041365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>8.06705</v>
       </c>
       <c r="I7">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="J7">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>10.355625</v>
       </c>
       <c r="O7">
-        <v>0.4245167462671222</v>
+        <v>0.4251619685170038</v>
       </c>
       <c r="P7">
-        <v>0.4245167462671222</v>
+        <v>0.4251619685170038</v>
       </c>
       <c r="Q7">
         <v>9.282149406249999</v>
@@ -880,10 +880,10 @@
         <v>83.53934465624999</v>
       </c>
       <c r="S7">
-        <v>0.1146770288154159</v>
+        <v>0.1914897647932306</v>
       </c>
       <c r="T7">
-        <v>0.1146770288154159</v>
+        <v>0.1914897647932306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,43 +909,43 @@
         <v>2.180498333333333</v>
       </c>
       <c r="H8">
-        <v>6.541495</v>
+        <v>6.541494999999999</v>
       </c>
       <c r="I8">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461261</v>
       </c>
       <c r="J8">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461262</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.128483</v>
+        <v>0.116143</v>
       </c>
       <c r="N8">
-        <v>0.385449</v>
+        <v>0.348429</v>
       </c>
       <c r="O8">
-        <v>0.01580103135560779</v>
+        <v>0.01430514908838541</v>
       </c>
       <c r="P8">
-        <v>0.01580103135560779</v>
+        <v>0.01430514908838541</v>
       </c>
       <c r="Q8">
-        <v>0.2801569673616667</v>
+        <v>0.2532496179283333</v>
       </c>
       <c r="R8">
-        <v>2.521412706255</v>
+        <v>2.279246561355</v>
       </c>
       <c r="S8">
-        <v>0.003461220802731395</v>
+        <v>0.005224512949384206</v>
       </c>
       <c r="T8">
-        <v>0.003461220802731395</v>
+        <v>0.005224512949384207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>2.180498333333333</v>
       </c>
       <c r="H9">
-        <v>6.541495</v>
+        <v>6.541494999999999</v>
       </c>
       <c r="I9">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461261</v>
       </c>
       <c r="J9">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.65284</v>
       </c>
       <c r="O9">
-        <v>0.5596822223772701</v>
+        <v>0.5605328823946109</v>
       </c>
       <c r="P9">
-        <v>0.5596822223772699</v>
+        <v>0.5605328823946107</v>
       </c>
       <c r="Q9">
-        <v>9.923331621755558</v>
+        <v>9.923331621755555</v>
       </c>
       <c r="R9">
-        <v>89.30998459580002</v>
+        <v>89.3099845958</v>
       </c>
       <c r="S9">
-        <v>0.1225985638161295</v>
+        <v>0.2047172863793504</v>
       </c>
       <c r="T9">
-        <v>0.1225985638161295</v>
+        <v>0.2047172863793504</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>2.180498333333333</v>
       </c>
       <c r="H10">
-        <v>6.541495</v>
+        <v>6.541494999999999</v>
       </c>
       <c r="I10">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461261</v>
       </c>
       <c r="J10">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461262</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>10.355625</v>
       </c>
       <c r="O10">
-        <v>0.4245167462671222</v>
+        <v>0.4251619685170038</v>
       </c>
       <c r="P10">
-        <v>0.4245167462671222</v>
+        <v>0.4251619685170038</v>
       </c>
       <c r="Q10">
-        <v>7.526807684375</v>
+        <v>7.526807684374998</v>
       </c>
       <c r="R10">
-        <v>67.74126915937501</v>
+        <v>67.74126915937499</v>
       </c>
       <c r="S10">
-        <v>0.09299052449295578</v>
+        <v>0.1552772499173916</v>
       </c>
       <c r="T10">
-        <v>0.09299052449295576</v>
+        <v>0.1552772499173916</v>
       </c>
     </row>
   </sheetData>
